--- a/output/StructureDefinition-no-basis-Appointment-new.xlsx
+++ b/output/StructureDefinition-no-basis-Appointment-new.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T01:49:52+02:00</t>
+    <t>2023-04-11T09:32:34+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-no-basis-Appointment-new.xlsx
+++ b/output/StructureDefinition-no-basis-Appointment-new.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:32:34+02:00</t>
+    <t>2023-04-18T13:51:55+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -677,7 +677,7 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
-    <t>urn:oid:2.16.578.1.12.4.1.1.8445</t>
+    <t>http://example.org/ValueSet/appointment-cancellation-reason</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -1646,7 +1646,7 @@
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="49.39453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.84765625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="57.734375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
@@ -3945,7 +3945,7 @@
         <v>76</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>111</v>
+        <v>194</v>
       </c>
       <c r="Y20" s="2"/>
       <c r="Z20" t="s" s="2">

--- a/output/StructureDefinition-no-basis-Appointment-new.xlsx
+++ b/output/StructureDefinition-no-basis-Appointment-new.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-18T13:51:55+02:00</t>
+    <t>2023-04-18T14:05:08+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-no-basis-Appointment-new.xlsx
+++ b/output/StructureDefinition-no-basis-Appointment-new.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2052" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2052" uniqueCount="416">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-18T14:05:08+02:00</t>
+    <t>2023-04-19T23:41:28+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -675,9 +675,6 @@
   </si>
   <si>
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>http://example.org/ValueSet/appointment-cancellation-reason</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -1646,7 +1643,7 @@
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="49.39453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="57.734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.84765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
@@ -3949,25 +3946,25 @@
       </c>
       <c r="Y20" s="2"/>
       <c r="Z20" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF20" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3985,24 +3982,24 @@
         <v>76</v>
       </c>
       <c r="AL20" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO20" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>215</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4025,19 +4022,19 @@
         <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="N21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>76</v>
@@ -4086,7 +4083,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -4104,24 +4101,24 @@
         <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO21" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>224</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4147,10 +4144,10 @@
         <v>191</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4181,7 +4178,7 @@
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>76</v>
@@ -4199,7 +4196,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4217,10 +4214,10 @@
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>76</v>
@@ -4231,10 +4228,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4260,13 +4257,13 @@
         <v>191</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4296,7 +4293,7 @@
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>76</v>
@@ -4314,7 +4311,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4329,10 +4326,10 @@
         <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>76</v>
@@ -4346,10 +4343,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4375,10 +4372,10 @@
         <v>191</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4409,7 +4406,7 @@
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>76</v>
@@ -4427,7 +4424,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4445,13 +4442,13 @@
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>76</v>
@@ -4459,10 +4456,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4488,10 +4485,10 @@
         <v>191</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4522,7 +4519,7 @@
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>76</v>
@@ -4540,7 +4537,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4558,24 +4555,24 @@
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO25" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>249</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4687,10 +4684,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4804,10 +4801,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4879,17 +4876,17 @@
         <v>76</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AC28" s="2"/>
       <c r="AD28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4907,27 +4904,27 @@
         <v>76</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO28" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>215</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="C29" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>76</v>
@@ -4952,10 +4949,10 @@
         <v>207</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N29" t="s" s="2">
         <v>210</v>
@@ -4986,14 +4983,14 @@
         <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="Y29" t="s" s="2">
+      <c r="Z29" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="Z29" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="AA29" t="s" s="2">
         <v>76</v>
       </c>
@@ -5010,7 +5007,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -5028,27 +5025,27 @@
         <v>76</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO29" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>215</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="C30" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>76</v>
@@ -5073,10 +5070,10 @@
         <v>207</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N30" t="s" s="2">
         <v>210</v>
@@ -5107,13 +5104,13 @@
         <v>76</v>
       </c>
       <c r="X30" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="Y30" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="Y30" t="s" s="2">
-        <v>259</v>
-      </c>
       <c r="Z30" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>76</v>
@@ -5131,7 +5128,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5149,27 +5146,27 @@
         <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO30" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>215</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="C31" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>76</v>
@@ -5194,10 +5191,10 @@
         <v>207</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N31" t="s" s="2">
         <v>210</v>
@@ -5228,13 +5225,13 @@
         <v>76</v>
       </c>
       <c r="X31" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="Y31" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="Y31" t="s" s="2">
-        <v>259</v>
-      </c>
       <c r="Z31" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>76</v>
@@ -5252,7 +5249,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5270,24 +5267,24 @@
         <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO31" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>215</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5310,19 +5307,19 @@
         <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>76</v>
@@ -5371,7 +5368,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5389,24 +5386,24 @@
         <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO32" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>224</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5432,10 +5429,10 @@
         <v>191</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5465,11 +5462,11 @@
         <v>111</v>
       </c>
       <c r="Y33" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="Z33" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="Z33" t="s" s="2">
-        <v>274</v>
-      </c>
       <c r="AA33" t="s" s="2">
         <v>76</v>
       </c>
@@ -5486,7 +5483,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5501,27 +5498,27 @@
         <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO33" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>277</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5544,13 +5541,13 @@
         <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5601,7 +5598,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5616,10 +5613,10 @@
         <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>76</v>
@@ -5633,10 +5630,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5659,16 +5656,16 @@
         <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5718,7 +5715,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5733,27 +5730,27 @@
         <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AO35" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>292</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5776,13 +5773,13 @@
         <v>76</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5833,7 +5830,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5851,24 +5848,24 @@
         <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO36" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>298</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5891,13 +5888,13 @@
         <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5948,7 +5945,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5963,16 +5960,16 @@
         <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>76</v>
@@ -5980,10 +5977,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6006,13 +6003,13 @@
         <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6063,7 +6060,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6078,27 +6075,27 @@
         <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="AN38" t="s" s="2">
+      <c r="AO38" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>315</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6121,13 +6118,13 @@
         <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6178,7 +6175,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6193,27 +6190,27 @@
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AL39" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AN39" t="s" s="2">
+      <c r="AO39" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>322</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6236,13 +6233,13 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6293,7 +6290,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6308,13 +6305,13 @@
         <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AL40" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>76</v>
@@ -6325,10 +6322,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6351,13 +6348,13 @@
         <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6408,7 +6405,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6426,7 +6423,7 @@
         <v>76</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>76</v>
@@ -6440,10 +6437,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6466,16 +6463,16 @@
         <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6525,7 +6522,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6540,13 +6537,13 @@
         <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>76</v>
@@ -6557,10 +6554,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6583,16 +6580,16 @@
         <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6642,7 +6639,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6657,27 +6654,27 @@
         <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AM43" t="s" s="2">
-        <v>348</v>
-      </c>
       <c r="AN43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6700,13 +6697,13 @@
         <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6757,7 +6754,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6775,28 +6772,28 @@
         <v>76</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6815,13 +6812,13 @@
         <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6872,7 +6869,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6887,10 +6884,10 @@
         <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>76</v>
@@ -6904,10 +6901,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6930,13 +6927,13 @@
         <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6987,7 +6984,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>87</v>
@@ -6999,30 +6996,30 @@
         <v>76</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AK46" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="AK46" t="s" s="2">
+      <c r="AL46" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AM46" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO46" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>368</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7045,7 +7042,7 @@
         <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L47" t="s" s="2">
         <v>198</v>
@@ -7134,10 +7131,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7251,14 +7248,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7280,10 +7277,10 @@
         <v>133</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>166</v>
@@ -7338,7 +7335,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7370,10 +7367,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7399,13 +7396,13 @@
         <v>191</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7431,14 +7428,14 @@
         <v>76</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Y50" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="Z50" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="Z50" t="s" s="2">
-        <v>381</v>
-      </c>
       <c r="AA50" t="s" s="2">
         <v>76</v>
       </c>
@@ -7455,7 +7452,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7473,7 +7470,7 @@
         <v>76</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>196</v>
@@ -7482,15 +7479,15 @@
         <v>76</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7513,13 +7510,13 @@
         <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7570,7 +7567,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7588,24 +7585,24 @@
         <v>76</v>
       </c>
       <c r="AL51" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="AN51" t="s" s="2">
+      <c r="AO51" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>391</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7631,10 +7628,10 @@
         <v>107</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7664,11 +7661,11 @@
         <v>182</v>
       </c>
       <c r="Y52" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="Z52" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="Z52" t="s" s="2">
-        <v>396</v>
-      </c>
       <c r="AA52" t="s" s="2">
         <v>76</v>
       </c>
@@ -7685,7 +7682,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7703,10 +7700,10 @@
         <v>76</v>
       </c>
       <c r="AL52" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>76</v>
@@ -7717,10 +7714,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7746,10 +7743,10 @@
         <v>107</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7779,11 +7776,11 @@
         <v>182</v>
       </c>
       <c r="Y53" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="Z53" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="Z53" t="s" s="2">
-        <v>403</v>
-      </c>
       <c r="AA53" t="s" s="2">
         <v>76</v>
       </c>
@@ -7800,7 +7797,7 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>87</v>
@@ -7818,24 +7815,24 @@
         <v>76</v>
       </c>
       <c r="AL53" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="AM53" t="s" s="2">
+      <c r="AN53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO53" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>406</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7858,13 +7855,13 @@
         <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7915,7 +7912,7 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -7947,10 +7944,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7973,16 +7970,16 @@
         <v>76</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8032,7 +8029,7 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -8047,19 +8044,19 @@
         <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AL55" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO55" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>416</v>
       </c>
     </row>
   </sheetData>

--- a/output/StructureDefinition-no-basis-Appointment-new.xlsx
+++ b/output/StructureDefinition-no-basis-Appointment-new.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2052" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="412">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-19T23:41:28+02:00</t>
+    <t>2023-04-19T23:48:27+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -631,7 +631,82 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>Appointment.cancelationReason.id</t>
+    <t>Appointment.serviceCategory</t>
+  </si>
+  <si>
+    <t>A broad categorization of the service that is to be performed during this appointment</t>
+  </si>
+  <si>
+    <t>A broad categorization of the service that is to be performed during this appointment.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/service-category</t>
+  </si>
+  <si>
+    <t>n/a, might be inferred from the ServiceDeliveryLocation</t>
+  </si>
+  <si>
+    <t>CATEGORIES</t>
+  </si>
+  <si>
+    <t>Appointment.serviceType</t>
+  </si>
+  <si>
+    <t>The specific service that is to be performed during this appointment</t>
+  </si>
+  <si>
+    <t>The specific service that is to be performed during this appointment.</t>
+  </si>
+  <si>
+    <t>For a provider to provider appointment the code "FOLLOWUP" may be appropriate, as this is expected to be discussing some patient that was seen in the past.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/service-type</t>
+  </si>
+  <si>
+    <t>Request.code</t>
+  </si>
+  <si>
+    <t>Appointment.specialty</t>
+  </si>
+  <si>
+    <t>The specialty of a practitioner that would be required to perform the service requested in this appointment</t>
+  </si>
+  <si>
+    <t>The specialty of a practitioner that would be required to perform the service requested in this appointment.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/c80-practice-codes</t>
+  </si>
+  <si>
+    <t>.performer.AssignedPerson.code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Appointment.appointmentType</t>
+  </si>
+  <si>
+    <t>The style of appointment or patient that has been booked in the slot (not service type)</t>
+  </si>
+  <si>
+    <t>The style of appointment or patient that has been booked in the slot (not service type).</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v2-0276</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>CLASSIFICATION</t>
+  </si>
+  <si>
+    <t>ARQ-7</t>
+  </si>
+  <si>
+    <t>Appointment.appointmentType.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -643,7 +718,7 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>Appointment.cancelationReason.extension</t>
+    <t>Appointment.appointmentType.extension</t>
   </si>
   <si>
     <t>Additional content defined by implementations</t>
@@ -658,7 +733,7 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>Appointment.cancelationReason.coding</t>
+    <t>Appointment.appointmentType.coding</t>
   </si>
   <si>
     <t xml:space="preserve">Coding
@@ -677,6 +752,13 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>CodeableConcept.coding</t>
   </si>
   <si>
@@ -686,7 +768,49 @@
     <t>C*E.1-8, C*E.10-22</t>
   </si>
   <si>
-    <t>Appointment.cancelationReason.text</t>
+    <t>Appointment.appointmentType.coding:omsorgsNiva</t>
+  </si>
+  <si>
+    <t>omsorgsNiva</t>
+  </si>
+  <si>
+    <t>Volven 8406</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Volven</t>
+  </si>
+  <si>
+    <t>urn:oid:2.16.578.1.12.4.1.1.8406</t>
+  </si>
+  <si>
+    <t>Appointment.appointmentType.coding:kontaktType</t>
+  </si>
+  <si>
+    <t>kontaktType</t>
+  </si>
+  <si>
+    <t>Volven 8432</t>
+  </si>
+  <si>
+    <t>urn:oid:2.16.578.1.12.4.1.1.8432</t>
+  </si>
+  <si>
+    <t>Appointment.appointmentType.coding:innbygger</t>
+  </si>
+  <si>
+    <t>innbygger</t>
+  </si>
+  <si>
+    <t>Volven 7617</t>
+  </si>
+  <si>
+    <t>urn:oid:2.16.578.1.12.4.1.1.7617</t>
+  </si>
+  <si>
+    <t>Appointment.appointmentType.text</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -712,142 +836,6 @@
   </si>
   <si>
     <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>Appointment.serviceCategory</t>
-  </si>
-  <si>
-    <t>A broad categorization of the service that is to be performed during this appointment</t>
-  </si>
-  <si>
-    <t>A broad categorization of the service that is to be performed during this appointment.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/service-category</t>
-  </si>
-  <si>
-    <t>n/a, might be inferred from the ServiceDeliveryLocation</t>
-  </si>
-  <si>
-    <t>CATEGORIES</t>
-  </si>
-  <si>
-    <t>Appointment.serviceType</t>
-  </si>
-  <si>
-    <t>The specific service that is to be performed during this appointment</t>
-  </si>
-  <si>
-    <t>The specific service that is to be performed during this appointment.</t>
-  </si>
-  <si>
-    <t>For a provider to provider appointment the code "FOLLOWUP" may be appropriate, as this is expected to be discussing some patient that was seen in the past.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/service-type</t>
-  </si>
-  <si>
-    <t>Request.code</t>
-  </si>
-  <si>
-    <t>Appointment.specialty</t>
-  </si>
-  <si>
-    <t>The specialty of a practitioner that would be required to perform the service requested in this appointment</t>
-  </si>
-  <si>
-    <t>The specialty of a practitioner that would be required to perform the service requested in this appointment.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/c80-practice-codes</t>
-  </si>
-  <si>
-    <t>.performer.AssignedPerson.code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>Appointment.appointmentType</t>
-  </si>
-  <si>
-    <t>The style of appointment or patient that has been booked in the slot (not service type)</t>
-  </si>
-  <si>
-    <t>The style of appointment or patient that has been booked in the slot (not service type).</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0276</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>CLASSIFICATION</t>
-  </si>
-  <si>
-    <t>ARQ-7</t>
-  </si>
-  <si>
-    <t>Appointment.appointmentType.id</t>
-  </si>
-  <si>
-    <t>Appointment.appointmentType.extension</t>
-  </si>
-  <si>
-    <t>Appointment.appointmentType.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Appointment.appointmentType.coding:omsorgsNiva</t>
-  </si>
-  <si>
-    <t>omsorgsNiva</t>
-  </si>
-  <si>
-    <t>Volven 8406</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Volven</t>
-  </si>
-  <si>
-    <t>urn:oid:2.16.578.1.12.4.1.1.8406</t>
-  </si>
-  <si>
-    <t>Appointment.appointmentType.coding:kontaktType</t>
-  </si>
-  <si>
-    <t>kontaktType</t>
-  </si>
-  <si>
-    <t>Volven 8432</t>
-  </si>
-  <si>
-    <t>urn:oid:2.16.578.1.12.4.1.1.8432</t>
-  </si>
-  <si>
-    <t>Appointment.appointmentType.coding:innbygger</t>
-  </si>
-  <si>
-    <t>innbygger</t>
-  </si>
-  <si>
-    <t>Volven 7617</t>
-  </si>
-  <si>
-    <t>urn:oid:2.16.578.1.12.4.1.1.7617</t>
-  </si>
-  <si>
-    <t>Appointment.appointmentType.text</t>
   </si>
   <si>
     <t>Appointment.reasonCode</t>
@@ -1609,7 +1597,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO55"/>
+  <dimension ref="A1:AO51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3661,7 +3649,7 @@
         <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>76</v>
@@ -3670,10 +3658,10 @@
         <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>89</v>
+        <v>191</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>198</v>
@@ -3706,13 +3694,11 @@
         <v>76</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>76</v>
@@ -3730,28 +3716,28 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>76</v>
+        <v>202</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>76</v>
@@ -3762,14 +3748,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3785,19 +3771,19 @@
         <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>133</v>
+        <v>191</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3823,31 +3809,29 @@
         <v>76</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>76</v>
+        <v>207</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>204</v>
+        <v>76</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3859,13 +3843,13 @@
         <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>76</v>
+        <v>208</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>76</v>
@@ -3879,10 +3863,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3905,20 +3889,16 @@
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="O20" t="s" s="2">
         <v>211</v>
       </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>76</v>
       </c>
@@ -3942,11 +3922,11 @@
         <v>76</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>194</v>
+        <v>111</v>
       </c>
       <c r="Y20" s="2"/>
       <c r="Z20" t="s" s="2">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>76</v>
@@ -3964,7 +3944,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3988,10 +3968,10 @@
         <v>76</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>76</v>
+        <v>214</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>214</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21">
@@ -4022,20 +4002,16 @@
         <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="M21" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>220</v>
-      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>76</v>
       </c>
@@ -4059,13 +4035,11 @@
         <v>76</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>76</v>
@@ -4083,7 +4057,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -4101,24 +4075,24 @@
         <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>76</v>
+        <v>220</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4129,7 +4103,7 @@
         <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>76</v>
@@ -4138,16 +4112,16 @@
         <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>191</v>
+        <v>89</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4174,11 +4148,13 @@
         <v>76</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="Y22" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z22" t="s" s="2">
-        <v>227</v>
+        <v>76</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>76</v>
@@ -4196,28 +4172,28 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>229</v>
+        <v>76</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>76</v>
@@ -4228,14 +4204,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4251,19 +4227,19 @@
         <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>191</v>
+        <v>133</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>233</v>
+        <v>166</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4289,26 +4265,28 @@
         <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="Y23" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z23" t="s" s="2">
-        <v>234</v>
+        <v>76</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>76</v>
+        <v>229</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>230</v>
@@ -4323,13 +4301,13 @@
         <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>235</v>
+        <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>76</v>
@@ -4343,10 +4321,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4369,16 +4347,20 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>191</v>
+        <v>232</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>76</v>
       </c>
@@ -4402,29 +4384,29 @@
         <v>76</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="Y24" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AC24" s="2"/>
+      <c r="AD24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4448,10 +4430,10 @@
         <v>76</v>
       </c>
       <c r="AN24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO24" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="25">
@@ -4459,9 +4441,11 @@
         <v>242</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="D25" t="s" s="2">
         <v>76</v>
       </c>
@@ -4482,16 +4466,20 @@
         <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>191</v>
+        <v>232</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+      <c r="N25" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>76</v>
       </c>
@@ -4515,11 +4503,13 @@
         <v>76</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="Y25" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="Z25" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>76</v>
@@ -4537,13 +4527,13 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>76</v>
@@ -4555,26 +4545,28 @@
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>247</v>
+        <v>76</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="C26" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="B26" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4592,19 +4584,23 @@
         <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>89</v>
+        <v>232</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>198</v>
+        <v>250</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4628,13 +4624,13 @@
         <v>76</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>76</v>
+        <v>245</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>76</v>
+        <v>246</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>76</v>
+        <v>251</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>76</v>
@@ -4652,25 +4648,25 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>200</v>
+        <v>239</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>196</v>
+        <v>240</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>76</v>
@@ -4679,26 +4675,28 @@
         <v>76</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>76</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="D27" t="s" s="2">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>76</v>
@@ -4707,21 +4705,23 @@
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>133</v>
+        <v>232</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>202</v>
+        <v>254</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>203</v>
+        <v>254</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>76</v>
       </c>
@@ -4745,31 +4745,31 @@
         <v>76</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>76</v>
+        <v>245</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>76</v>
+        <v>246</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>76</v>
+        <v>255</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>204</v>
+        <v>76</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4781,13 +4781,13 @@
         <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>196</v>
+        <v>240</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>76</v>
@@ -4796,15 +4796,15 @@
         <v>76</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>76</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4815,7 +4815,7 @@
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>76</v>
@@ -4827,19 +4827,19 @@
         <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>207</v>
+        <v>257</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>208</v>
+        <v>258</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>209</v>
+        <v>259</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>76</v>
@@ -4876,23 +4876,25 @@
         <v>76</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="AC28" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>253</v>
+        <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>76</v>
@@ -4904,7 +4906,7 @@
         <v>76</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>213</v>
+        <v>263</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>76</v>
@@ -4913,19 +4915,17 @@
         <v>76</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>214</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
         <v>76</v>
       </c>
@@ -4934,7 +4934,7 @@
         <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>76</v>
@@ -4946,20 +4946,16 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>76</v>
       </c>
@@ -4983,13 +4979,13 @@
         <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>257</v>
+        <v>111</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>76</v>
@@ -5007,7 +5003,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -5022,10 +5018,10 @@
         <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>76</v>
+        <v>270</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>213</v>
+        <v>271</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>76</v>
@@ -5034,19 +5030,17 @@
         <v>76</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>214</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
         <v>76</v>
       </c>
@@ -5055,7 +5049,7 @@
         <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>76</v>
@@ -5064,23 +5058,19 @@
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>207</v>
+        <v>274</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>76</v>
       </c>
@@ -5104,13 +5094,13 @@
         <v>76</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>257</v>
+        <v>76</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>258</v>
+        <v>76</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>263</v>
+        <v>76</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>76</v>
@@ -5128,7 +5118,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>212</v>
+        <v>273</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5143,10 +5133,10 @@
         <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>76</v>
+        <v>277</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>213</v>
+        <v>278</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>76</v>
@@ -5155,19 +5145,17 @@
         <v>76</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>214</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
         <v>76</v>
       </c>
@@ -5185,23 +5173,21 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>207</v>
+        <v>280</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>76</v>
       </c>
@@ -5225,13 +5211,13 @@
         <v>76</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>257</v>
+        <v>76</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>258</v>
+        <v>76</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>267</v>
+        <v>76</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>76</v>
@@ -5249,13 +5235,13 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>212</v>
+        <v>279</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>76</v>
@@ -5264,27 +5250,27 @@
         <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>76</v>
+        <v>284</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>213</v>
+        <v>285</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>76</v>
+        <v>286</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>76</v>
+        <v>214</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>214</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5304,23 +5290,19 @@
         <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>217</v>
+        <v>289</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>76</v>
       </c>
@@ -5368,7 +5350,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>221</v>
+        <v>288</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5386,24 +5368,24 @@
         <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>222</v>
+        <v>291</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>76</v>
+        <v>292</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>223</v>
+        <v>293</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5423,16 +5405,16 @@
         <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>191</v>
+        <v>295</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5459,13 +5441,13 @@
         <v>76</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>272</v>
+        <v>76</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>273</v>
+        <v>76</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>76</v>
@@ -5483,7 +5465,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5498,27 +5480,27 @@
         <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>76</v>
+        <v>300</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>76</v>
+        <v>301</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>276</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5529,7 +5511,7 @@
         <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>76</v>
@@ -5538,16 +5520,16 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5598,13 +5580,13 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>76</v>
@@ -5613,27 +5595,27 @@
         <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>76</v>
+        <v>308</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>76</v>
+        <v>309</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>76</v>
+        <v>310</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5653,20 +5635,18 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>76</v>
@@ -5715,7 +5695,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5730,27 +5710,27 @@
         <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>241</v>
+        <v>316</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>291</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5773,13 +5753,13 @@
         <v>76</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>216</v>
+        <v>319</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5830,7 +5810,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5845,27 +5825,27 @@
         <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>76</v>
+        <v>306</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>297</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5888,13 +5868,13 @@
         <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5945,7 +5925,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5960,16 +5940,16 @@
         <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>302</v>
+        <v>76</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>304</v>
+        <v>76</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>305</v>
+        <v>76</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>76</v>
@@ -5977,10 +5957,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6000,18 +5980,20 @@
         <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>76</v>
@@ -6060,7 +6042,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6075,27 +6057,27 @@
         <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>312</v>
+        <v>336</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>313</v>
+        <v>76</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>314</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6115,18 +6097,20 @@
         <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>307</v>
+        <v>257</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>316</v>
+        <v>338</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>76</v>
@@ -6175,7 +6159,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6190,27 +6174,27 @@
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>319</v>
+        <v>343</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>320</v>
+        <v>76</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>321</v>
+        <v>293</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6233,13 +6217,13 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>323</v>
+        <v>257</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>324</v>
+        <v>345</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>325</v>
+        <v>346</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6290,7 +6274,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6305,31 +6289,31 @@
         <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>310</v>
+        <v>76</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>76</v>
+        <v>293</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>76</v>
+        <v>349</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6348,13 +6332,13 @@
         <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6405,7 +6389,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6420,10 +6404,10 @@
         <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>76</v>
+        <v>353</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>76</v>
@@ -6437,10 +6421,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6448,10 +6432,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>76</v>
@@ -6463,17 +6447,15 @@
         <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>334</v>
+        <v>356</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>76</v>
@@ -6522,42 +6504,42 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>99</v>
+        <v>359</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>339</v>
+        <v>361</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>76</v>
+        <v>363</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>341</v>
+        <v>364</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>341</v>
+        <v>364</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6580,17 +6562,15 @@
         <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>342</v>
+        <v>223</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>76</v>
@@ -6639,7 +6619,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>341</v>
+        <v>225</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6651,41 +6631,41 @@
         <v>76</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>345</v>
+        <v>76</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>346</v>
+        <v>196</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>347</v>
+        <v>76</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>297</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>76</v>
@@ -6697,15 +6677,17 @@
         <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>216</v>
+        <v>133</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>349</v>
+        <v>227</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>76</v>
@@ -6754,46 +6736,46 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>348</v>
+        <v>230</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>346</v>
+        <v>196</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>351</v>
+        <v>76</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>297</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6806,22 +6788,26 @@
         <v>76</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>354</v>
+        <v>133</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>76</v>
       </c>
@@ -6869,7 +6855,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6881,13 +6867,13 @@
         <v>76</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>357</v>
+        <v>76</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>358</v>
+        <v>131</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>76</v>
@@ -6901,10 +6887,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6912,7 +6898,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>78</v>
@@ -6924,18 +6910,20 @@
         <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>360</v>
+        <v>191</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>76</v>
@@ -6960,13 +6948,13 @@
         <v>76</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>76</v>
+        <v>245</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>76</v>
+        <v>375</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>76</v>
+        <v>376</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>76</v>
@@ -6984,10 +6972,10 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>78</v>
@@ -6996,30 +6984,30 @@
         <v>76</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>363</v>
+        <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>364</v>
+        <v>76</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>366</v>
+        <v>196</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>367</v>
+        <v>378</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7039,16 +7027,16 @@
         <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>216</v>
+        <v>380</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>198</v>
+        <v>381</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>199</v>
+        <v>382</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7099,7 +7087,7 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>200</v>
+        <v>379</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7111,41 +7099,41 @@
         <v>76</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>196</v>
+        <v>383</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>76</v>
+        <v>384</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>76</v>
+        <v>385</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>76</v>
+        <v>386</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>76</v>
@@ -7154,20 +7142,18 @@
         <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>202</v>
+        <v>388</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>76</v>
@@ -7192,13 +7178,13 @@
         <v>76</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>76</v>
+        <v>182</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>76</v>
+        <v>390</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>76</v>
+        <v>391</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>76</v>
@@ -7216,28 +7202,28 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>205</v>
+        <v>387</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>196</v>
+        <v>392</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>76</v>
+        <v>393</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>76</v>
@@ -7248,46 +7234,42 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>370</v>
+        <v>394</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>370</v>
+        <v>394</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>371</v>
+        <v>76</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>76</v>
       </c>
@@ -7311,13 +7293,13 @@
         <v>76</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>76</v>
+        <v>182</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>76</v>
+        <v>397</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>76</v>
+        <v>398</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>76</v>
@@ -7335,42 +7317,42 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>131</v>
+        <v>399</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>76</v>
+        <v>400</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>76</v>
+        <v>401</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>375</v>
+        <v>402</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>375</v>
+        <v>402</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7381,7 +7363,7 @@
         <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>76</v>
@@ -7390,20 +7372,18 @@
         <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>191</v>
+        <v>403</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>376</v>
+        <v>404</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>76</v>
@@ -7428,13 +7408,13 @@
         <v>76</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>257</v>
+        <v>76</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>379</v>
+        <v>76</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>380</v>
+        <v>76</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>76</v>
@@ -7452,13 +7432,13 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>375</v>
+        <v>402</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>76</v>
@@ -7470,24 +7450,24 @@
         <v>76</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>381</v>
+        <v>196</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>196</v>
+        <v>76</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>382</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>383</v>
+        <v>406</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>383</v>
+        <v>406</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7498,7 +7478,7 @@
         <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>76</v>
@@ -7507,18 +7487,20 @@
         <v>76</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>76</v>
@@ -7567,13 +7549,13 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>383</v>
+        <v>406</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>76</v>
@@ -7582,481 +7564,19 @@
         <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>76</v>
+        <v>306</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>387</v>
+        <v>410</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>388</v>
+        <v>76</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>389</v>
+        <v>76</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q52" s="2"/>
-      <c r="R52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q53" s="2"/>
-      <c r="R53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q54" s="2"/>
-      <c r="R54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="L55" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="O55" s="2"/>
-      <c r="P55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q55" s="2"/>
-      <c r="R55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>415</v>
       </c>
     </row>
   </sheetData>

--- a/output/StructureDefinition-no-basis-Appointment-new.xlsx
+++ b/output/StructureDefinition-no-basis-Appointment-new.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-19T23:48:27+02:00</t>
+    <t>2023-04-27T14:52:10+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
